--- a/data/pca/factorExposure/factorExposure_2013-05-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-22.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001104015374965039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002042272693666097</v>
+      </c>
+      <c r="C2">
+        <v>-0.03217489861369319</v>
+      </c>
+      <c r="D2">
+        <v>0.005555312024489038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001508527246717335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006019503766019437</v>
+      </c>
+      <c r="C4">
+        <v>-0.08325863724672292</v>
+      </c>
+      <c r="D4">
+        <v>0.07988993738626793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>5.042776851860213e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01346456569035643</v>
+      </c>
+      <c r="C6">
+        <v>-0.106987556284576</v>
+      </c>
+      <c r="D6">
+        <v>0.03624973308936334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001757180215404032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004807681152094467</v>
+      </c>
+      <c r="C7">
+        <v>-0.05148088028690096</v>
+      </c>
+      <c r="D7">
+        <v>0.03806640227345007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.00166626987431835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005707970563929017</v>
+      </c>
+      <c r="C8">
+        <v>-0.03698900038082793</v>
+      </c>
+      <c r="D8">
+        <v>0.03980333361605334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.00472087007824578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003972914716867777</v>
+      </c>
+      <c r="C9">
+        <v>-0.06828745917070608</v>
+      </c>
+      <c r="D9">
+        <v>0.07050592018266691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.003219741037134443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005776880006295055</v>
+      </c>
+      <c r="C10">
+        <v>-0.07579781191685439</v>
+      </c>
+      <c r="D10">
+        <v>-0.211204364190374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004648568596934234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005125487276682041</v>
+      </c>
+      <c r="C11">
+        <v>-0.07781284118214042</v>
+      </c>
+      <c r="D11">
+        <v>0.06427554120404419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006707944493375784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003811891417899379</v>
+      </c>
+      <c r="C12">
+        <v>-0.06280793042978172</v>
+      </c>
+      <c r="D12">
+        <v>0.04613550266941251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003589784875975805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008665962594222301</v>
+      </c>
+      <c r="C13">
+        <v>-0.06865293367397597</v>
+      </c>
+      <c r="D13">
+        <v>0.07048504681340424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002553870322356255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001549069387336339</v>
+      </c>
+      <c r="C14">
+        <v>-0.04571439815062723</v>
+      </c>
+      <c r="D14">
+        <v>0.01419380492865184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002595841139976485</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005864968766465879</v>
+      </c>
+      <c r="C15">
+        <v>-0.03833234068412583</v>
+      </c>
+      <c r="D15">
+        <v>0.03841424887868536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002619490702413933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004848869707056864</v>
+      </c>
+      <c r="C16">
+        <v>-0.0640151411423447</v>
+      </c>
+      <c r="D16">
+        <v>0.04896903016261236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0007445401676410208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008987863103469051</v>
+      </c>
+      <c r="C20">
+        <v>-0.06441019580104372</v>
+      </c>
+      <c r="D20">
+        <v>0.05600717885952857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004342507235384136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009937608646579138</v>
+      </c>
+      <c r="C21">
+        <v>-0.02267635081859807</v>
+      </c>
+      <c r="D21">
+        <v>0.03623430099183432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01633891332443061</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.0068600969786143</v>
+      </c>
+      <c r="C22">
+        <v>-0.09166506029554689</v>
+      </c>
+      <c r="D22">
+        <v>0.1013434997261079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01668571823892211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006651349275712218</v>
+      </c>
+      <c r="C23">
+        <v>-0.09269838210388934</v>
+      </c>
+      <c r="D23">
+        <v>0.1019095238248125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003189218572037616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004751294294450162</v>
+      </c>
+      <c r="C24">
+        <v>-0.07207137974623234</v>
+      </c>
+      <c r="D24">
+        <v>0.06085839368767565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004738870385286842</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002774080938422094</v>
+      </c>
+      <c r="C25">
+        <v>-0.07683114470268042</v>
+      </c>
+      <c r="D25">
+        <v>0.06571183306863133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00595002926598634</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003583052290872652</v>
+      </c>
+      <c r="C26">
+        <v>-0.04082117219525042</v>
+      </c>
+      <c r="D26">
+        <v>0.02839470116558375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007232426165623166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0002588653783913196</v>
+      </c>
+      <c r="C28">
+        <v>-0.1276135918588453</v>
+      </c>
+      <c r="D28">
+        <v>-0.3080476231010847</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002502197798341281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003315729325693608</v>
+      </c>
+      <c r="C29">
+        <v>-0.04786739957020553</v>
+      </c>
+      <c r="D29">
+        <v>0.01597738632007455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004313505252806789</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008705117374138019</v>
+      </c>
+      <c r="C30">
+        <v>-0.1361668352231019</v>
+      </c>
+      <c r="D30">
+        <v>0.1109251087488433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0002317287024445483</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006092866252871492</v>
+      </c>
+      <c r="C31">
+        <v>-0.04525122654271246</v>
+      </c>
+      <c r="D31">
+        <v>0.03225319712744503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001821189250898106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003909562699158865</v>
+      </c>
+      <c r="C32">
+        <v>-0.04090012309180675</v>
+      </c>
+      <c r="D32">
+        <v>0.01306511247859032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.00298679701476491</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007689009871607692</v>
+      </c>
+      <c r="C33">
+        <v>-0.08197887649561197</v>
+      </c>
+      <c r="D33">
+        <v>0.07506996914382037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005228251997453971</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003699518229448921</v>
+      </c>
+      <c r="C34">
+        <v>-0.05682103978405671</v>
+      </c>
+      <c r="D34">
+        <v>0.04648645408521031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.00346061543373603</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.00476788063911798</v>
+      </c>
+      <c r="C35">
+        <v>-0.03795944813740483</v>
+      </c>
+      <c r="D35">
+        <v>0.01273498926950641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004339861539169637</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001352170226160077</v>
+      </c>
+      <c r="C36">
+        <v>-0.02331654972331967</v>
+      </c>
+      <c r="D36">
+        <v>0.02125192170691394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002279870929588938</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009399755173767971</v>
+      </c>
+      <c r="C38">
+        <v>-0.03331545231184097</v>
+      </c>
+      <c r="D38">
+        <v>0.02349471138774905</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01309240423062571</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.000960176825783788</v>
+      </c>
+      <c r="C39">
+        <v>-0.1140489640869776</v>
+      </c>
+      <c r="D39">
+        <v>0.08369661691926432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007477394079576686</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002389409327296211</v>
+      </c>
+      <c r="C40">
+        <v>-0.08722294277311546</v>
+      </c>
+      <c r="D40">
+        <v>0.02725852059289042</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>1.680697887320101e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007373730977793672</v>
+      </c>
+      <c r="C41">
+        <v>-0.03846303170176294</v>
+      </c>
+      <c r="D41">
+        <v>0.03610211890041064</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00275057107835194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003365647413950601</v>
+      </c>
+      <c r="C43">
+        <v>-0.05019160326111082</v>
+      </c>
+      <c r="D43">
+        <v>0.02837768957790614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004309585254721573</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003734652733927902</v>
+      </c>
+      <c r="C44">
+        <v>-0.1080488187208042</v>
+      </c>
+      <c r="D44">
+        <v>0.08495488104973468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002304771404516665</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002358014125783398</v>
+      </c>
+      <c r="C46">
+        <v>-0.03477568676323492</v>
+      </c>
+      <c r="D46">
+        <v>0.03450736856346445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0007961509026065943</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002896728323561238</v>
+      </c>
+      <c r="C47">
+        <v>-0.03952867777418099</v>
+      </c>
+      <c r="D47">
+        <v>0.02552231822584233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004132768829147492</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006413104725124534</v>
+      </c>
+      <c r="C48">
+        <v>-0.0285656512432728</v>
+      </c>
+      <c r="D48">
+        <v>0.03024506985818747</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01310371536300037</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01405821037810137</v>
+      </c>
+      <c r="C49">
+        <v>-0.1710134251661065</v>
+      </c>
+      <c r="D49">
+        <v>0.03492080241451237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-6.884333452138519e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003688622872852126</v>
+      </c>
+      <c r="C50">
+        <v>-0.04194029958908688</v>
+      </c>
+      <c r="D50">
+        <v>0.0360874145204675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.002023503509085665</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004172759585848328</v>
+      </c>
+      <c r="C51">
+        <v>-0.01948095301142563</v>
+      </c>
+      <c r="D51">
+        <v>0.0328961780474237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001465353344880298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02035999076549804</v>
+      </c>
+      <c r="C53">
+        <v>-0.1645754376213642</v>
+      </c>
+      <c r="D53">
+        <v>0.05324604632920237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0003285632847093751</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008564211134422153</v>
+      </c>
+      <c r="C54">
+        <v>-0.05538599267631059</v>
+      </c>
+      <c r="D54">
+        <v>0.04183740716788786</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004687691982219788</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009401693499861474</v>
+      </c>
+      <c r="C55">
+        <v>-0.1048415604786548</v>
+      </c>
+      <c r="D55">
+        <v>0.05294396657564546</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003600363134462313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01964938884592461</v>
+      </c>
+      <c r="C56">
+        <v>-0.171227326881052</v>
+      </c>
+      <c r="D56">
+        <v>0.05020660486054922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007371251468759666</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0193328225349721</v>
+      </c>
+      <c r="C58">
+        <v>-0.1008399080920379</v>
+      </c>
+      <c r="D58">
+        <v>0.07721848514256918</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.008878205996994466</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009764906745261145</v>
+      </c>
+      <c r="C59">
+        <v>-0.170932554199701</v>
+      </c>
+      <c r="D59">
+        <v>-0.2796064876496839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006743151924761492</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02344197083173923</v>
+      </c>
+      <c r="C60">
+        <v>-0.2209711478420447</v>
+      </c>
+      <c r="D60">
+        <v>0.02842862990814743</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01473131904411742</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001989797277385255</v>
+      </c>
+      <c r="C61">
+        <v>-0.09407641062048551</v>
+      </c>
+      <c r="D61">
+        <v>0.06273588528733577</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1818535538286334</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1437599434614074</v>
+      </c>
+      <c r="C62">
+        <v>-0.07653317131460326</v>
+      </c>
+      <c r="D62">
+        <v>0.05466372504747501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001405838834685009</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006373427593438382</v>
+      </c>
+      <c r="C63">
+        <v>-0.05887935946337201</v>
+      </c>
+      <c r="D63">
+        <v>0.02540591478398919</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007211153346139067</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01470686754056598</v>
+      </c>
+      <c r="C64">
+        <v>-0.1022056817218668</v>
+      </c>
+      <c r="D64">
+        <v>0.06483474242492407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0007751943997590175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0171297682658365</v>
+      </c>
+      <c r="C65">
+        <v>-0.1135975493173119</v>
+      </c>
+      <c r="D65">
+        <v>0.02982403024436891</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008714993873926663</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01217669994940554</v>
+      </c>
+      <c r="C66">
+        <v>-0.1521103314950911</v>
+      </c>
+      <c r="D66">
+        <v>0.1221703031029019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002522916183301927</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01548610916025155</v>
+      </c>
+      <c r="C67">
+        <v>-0.06262057986296798</v>
+      </c>
+      <c r="D67">
+        <v>0.03507525046808773</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.009030685390483389</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001510618694626928</v>
+      </c>
+      <c r="C68">
+        <v>-0.1102011868922587</v>
+      </c>
+      <c r="D68">
+        <v>-0.2607178868013592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002460344213704539</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00583765506147883</v>
+      </c>
+      <c r="C69">
+        <v>-0.04718841140052019</v>
+      </c>
+      <c r="D69">
+        <v>0.04295048395448219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001721777670556368</v>
+      </c>
+      <c r="C70">
+        <v>-0.001814181249258784</v>
+      </c>
+      <c r="D70">
+        <v>0.001935384095327733</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.005102710840765036</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006332883855706915</v>
+      </c>
+      <c r="C71">
+        <v>-0.1129606371738645</v>
+      </c>
+      <c r="D71">
+        <v>-0.2831852516308904</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008820914558805735</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01541941555721171</v>
+      </c>
+      <c r="C72">
+        <v>-0.1502862747981797</v>
+      </c>
+      <c r="D72">
+        <v>0.02589433082697841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0132633942281645</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02929971710348309</v>
+      </c>
+      <c r="C73">
+        <v>-0.2810720061761434</v>
+      </c>
+      <c r="D73">
+        <v>0.05158145756020653</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00442933021270915</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001504077181220333</v>
+      </c>
+      <c r="C74">
+        <v>-0.1042475439362642</v>
+      </c>
+      <c r="D74">
+        <v>0.04337086399233035</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006472616402146347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01073403048240412</v>
+      </c>
+      <c r="C75">
+        <v>-0.1311460505683548</v>
+      </c>
+      <c r="D75">
+        <v>0.03753892328394665</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01179844626988761</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02132871108720839</v>
+      </c>
+      <c r="C76">
+        <v>-0.1450516856369385</v>
+      </c>
+      <c r="D76">
+        <v>0.07411250339134605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002275769057039829</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02429170454467849</v>
+      </c>
+      <c r="C77">
+        <v>-0.1317139214285516</v>
+      </c>
+      <c r="D77">
+        <v>0.06531912392901677</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003493030287230583</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01415126044321762</v>
+      </c>
+      <c r="C78">
+        <v>-0.09069569815554189</v>
+      </c>
+      <c r="D78">
+        <v>0.0708256826481293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02729989841610131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03686878359732257</v>
+      </c>
+      <c r="C79">
+        <v>-0.1556775283860025</v>
+      </c>
+      <c r="D79">
+        <v>0.03526398875219586</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00535727388434273</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01064354752562912</v>
+      </c>
+      <c r="C80">
+        <v>-0.04166754856923528</v>
+      </c>
+      <c r="D80">
+        <v>0.03273395756412138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0001141660835942741</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01461187466836195</v>
+      </c>
+      <c r="C81">
+        <v>-0.1209125786112884</v>
+      </c>
+      <c r="D81">
+        <v>0.05675343091329842</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006469076811211425</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01955081269637484</v>
+      </c>
+      <c r="C82">
+        <v>-0.1414299468276093</v>
+      </c>
+      <c r="D82">
+        <v>0.04904047648965855</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.005893540423296714</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.00969003103467064</v>
+      </c>
+      <c r="C83">
+        <v>-0.05567636349377717</v>
+      </c>
+      <c r="D83">
+        <v>0.05203490834596437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01448831195973743</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01176550971151716</v>
+      </c>
+      <c r="C84">
+        <v>-0.03177643989036976</v>
+      </c>
+      <c r="D84">
+        <v>0.003273615354435324</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01585207328958696</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02796427693428244</v>
+      </c>
+      <c r="C85">
+        <v>-0.1281822333236557</v>
+      </c>
+      <c r="D85">
+        <v>0.05345237781553517</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002957078310233918</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005536968258430619</v>
+      </c>
+      <c r="C86">
+        <v>-0.04920121948157179</v>
+      </c>
+      <c r="D86">
+        <v>0.02358554206211104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00766956241203869</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01015121835449758</v>
+      </c>
+      <c r="C87">
+        <v>-0.1273962780964719</v>
+      </c>
+      <c r="D87">
+        <v>0.08219994154119284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01429515166330278</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002899489739767023</v>
+      </c>
+      <c r="C88">
+        <v>-0.0687429875977921</v>
+      </c>
+      <c r="D88">
+        <v>0.01764394970892365</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01794081872793445</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0008326401947469193</v>
+      </c>
+      <c r="C89">
+        <v>-0.1642128409899261</v>
+      </c>
+      <c r="D89">
+        <v>-0.3433519065654672</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.005244961944617907</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007594666499894361</v>
+      </c>
+      <c r="C90">
+        <v>-0.1431120548852607</v>
+      </c>
+      <c r="D90">
+        <v>-0.3155084695106252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.00188246039154952</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01027327155249374</v>
+      </c>
+      <c r="C91">
+        <v>-0.104407300674242</v>
+      </c>
+      <c r="D91">
+        <v>0.02065288221530225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01462665001998238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0007099243864298177</v>
+      </c>
+      <c r="C92">
+        <v>-0.1531002126852439</v>
+      </c>
+      <c r="D92">
+        <v>-0.3266364183799351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003307257692811397</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005617987977092926</v>
+      </c>
+      <c r="C93">
+        <v>-0.1262688215221311</v>
+      </c>
+      <c r="D93">
+        <v>-0.3115759488620357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004025621690261091</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02229840059748008</v>
+      </c>
+      <c r="C94">
+        <v>-0.1568001341565887</v>
+      </c>
+      <c r="D94">
+        <v>0.03576435882861884</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004717521226338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01600030238619346</v>
+      </c>
+      <c r="C95">
+        <v>-0.1244584432818914</v>
+      </c>
+      <c r="D95">
+        <v>0.07132221762605159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002428048190944383</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03453721401877863</v>
+      </c>
+      <c r="C97">
+        <v>-0.1784005403258879</v>
+      </c>
+      <c r="D97">
+        <v>0.04453574055382347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00654957495782046</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03573204447618106</v>
+      </c>
+      <c r="C98">
+        <v>-0.2551241045914687</v>
+      </c>
+      <c r="D98">
+        <v>0.04255580644749334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9809160814073415</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.982702777719994</v>
+      </c>
+      <c r="C99">
+        <v>0.1097017597995229</v>
+      </c>
+      <c r="D99">
+        <v>-0.03270174716665459</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.00246094767525811</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003356872507442474</v>
+      </c>
+      <c r="C101">
+        <v>-0.04788484347880011</v>
+      </c>
+      <c r="D101">
+        <v>0.01634856691230412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
